--- a/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
+++ b/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
@@ -16460,8 +16460,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -16485,6 +16485,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16563,6 +16565,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -16592,6 +16601,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -16693,6 +16713,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2829088D-DA30-47EF-889C-1F61AD645BB7}">
   <ds:schemaRefs>
@@ -16702,21 +16735,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A8407D5-CEBB-4CE0-A948-8B116A3DF1A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF85A3C1-95FA-4354-897A-D25499AF107B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9511BC-E15D-49D5-BCD4-BE4839FE3C43}"/>
 </file>
--- a/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
+++ b/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
@@ -16735,9 +16735,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF85A3C1-95FA-4354-897A-D25499AF107B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F47DAE-FEC5-48DD-8AE2-43C1C805395A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9511BC-E15D-49D5-BCD4-BE4839FE3C43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35B83BB-03A1-4EC8-876A-FDE342455559}"/>
 </file>
--- a/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
+++ b/460_実践ガイドブック/466-2_データ人材評価ツール.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalgojp.sharepoint.com/sites/Data_Coordination_Task_Force/Shared Documents/データ標準/GIF/460_実践ガイドブック/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0AE99E87-FE89-4FEE-A895-C4833B54B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F58A3C7-923C-441D-AF6D-799D563E7807}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9394BA4B-57D8-403E-BD67-38E76FC65781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8F6301B-254A-4EB0-8542-1DEB4BBA7B7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8F6301B-254A-4EB0-8542-1DEB4BBA7B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="記入要領" sheetId="4" r:id="rId1"/>
@@ -5748,6 +5743,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5759,9 +5757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5781,9 +5776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5821,7 +5816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5927,7 +5922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6069,7 +6064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6083,12 +6078,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" customWidth="1"/>
+    <col min="1" max="1" width="107.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="270" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" ht="276.45" x14ac:dyDescent="0.65">
       <c r="A2" s="35" t="s">
         <v>378</v>
       </c>
@@ -6111,19 +6106,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.58203125" customWidth="1"/>
+    <col min="6" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="54" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="8.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6126,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6184,7 +6179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6218,7 +6213,7 @@
         <f>I3+J3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="40" t="s">
         <v>22</v>
       </c>
       <c r="M3">
@@ -6242,7 +6237,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -6276,7 +6271,7 @@
         <f t="shared" ref="K4:K32" si="1">I4+J4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
       <c r="M4">
         <f t="shared" ref="M4:M32" si="2">IF(F4&lt;2,IF(F4&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6298,7 +6293,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -6334,7 +6329,7 @@
         <f>I5+J5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
       <c r="M5">
         <f>IF(F5&lt;2,IF(F5&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6356,7 +6351,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -6392,7 +6387,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
       <c r="M6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6414,11 +6409,11 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -6450,7 +6445,7 @@
         <f>I7+J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="41"/>
       <c r="M7">
         <f>IF(F7&lt;2,IF(F7&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6472,7 +6467,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -6530,7 +6525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -6622,7 +6617,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="40"/>
       <c r="M10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6644,7 +6639,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6680,7 +6675,7 @@
         <f>I11+J11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="41"/>
       <c r="M11">
         <f>IF(F11&lt;2,IF(F11&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6702,7 +6697,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -6760,7 +6755,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -6794,7 +6789,7 @@
         <f>I13+J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="40"/>
       <c r="M13">
         <f>IF(F13&lt;2,IF(F13&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6816,7 +6811,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -6852,7 +6847,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="42"/>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6874,7 +6869,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -6910,7 +6905,7 @@
         <f t="shared" ref="K15" si="8">I15+J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15">
         <f t="shared" ref="M15" si="9">IF(F15&lt;2,IF(F15&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6932,7 +6927,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -6968,7 +6963,7 @@
         <f>I16+J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="41"/>
       <c r="M16">
         <f>IF(F16&lt;2,IF(F16&lt;1,0,5),10)</f>
         <v>0</v>
@@ -6990,7 +6985,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -7026,7 +7021,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="M17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7048,7 +7043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -7084,7 +7079,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="42"/>
       <c r="M18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7106,7 +7101,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -7142,7 +7137,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="40"/>
+      <c r="L19" s="41"/>
       <c r="M19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7164,7 +7159,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -7200,7 +7195,7 @@
         <f>I20+J20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="40"/>
       <c r="M20">
         <f>IF(F20&lt;2,IF(F20&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7222,7 +7217,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -7258,7 +7253,7 @@
         <f>I21+J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="41"/>
       <c r="M21">
         <f>IF(F21&lt;2,IF(F21&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7280,7 +7275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" ht="129" x14ac:dyDescent="0.65">
       <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
@@ -7316,7 +7311,7 @@
         <f t="shared" ref="K22:K31" si="15">I22+J22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="40"/>
       <c r="M22">
         <f t="shared" ref="M22:M31" si="16">IF(F22&lt;2,IF(F22&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7338,7 +7333,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -7374,7 +7369,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="41"/>
       <c r="M23">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -7396,7 +7391,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -7432,7 +7427,7 @@
         <f>I24+J24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="40"/>
       <c r="M24">
         <f>IF(F24&lt;2,IF(F24&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7454,7 +7449,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -7490,7 +7485,7 @@
         <f>I25+J25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="41"/>
       <c r="M25">
         <f>IF(F25&lt;2,IF(F25&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7512,7 +7507,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -7548,7 +7543,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L26" s="39"/>
+      <c r="L26" s="40"/>
       <c r="M26">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -7570,7 +7565,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -7606,7 +7601,7 @@
         <f t="shared" ref="K27" si="21">I27+J27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="41"/>
+      <c r="L27" s="42"/>
       <c r="M27">
         <f t="shared" ref="M27" si="22">IF(F27&lt;2,IF(F27&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7628,7 +7623,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
@@ -7662,7 +7657,7 @@
         <f>I28+J28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="M28">
         <f>IF(F28&lt;2,IF(F28&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7684,7 +7679,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
         <v>99</v>
@@ -7718,7 +7713,7 @@
         <f t="shared" ref="K29" si="28">I29+J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="41"/>
+      <c r="L29" s="42"/>
       <c r="M29">
         <f t="shared" ref="M29" si="29">IF(F29&lt;2,IF(F29&lt;1,0,5),10)</f>
         <v>0</v>
@@ -7740,7 +7735,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -7776,7 +7771,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -7798,7 +7793,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -7834,7 +7829,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L31" s="40"/>
+      <c r="L31" s="41"/>
       <c r="M31">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -7856,7 +7851,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A33" s="3" t="s">
         <v>112</v>
       </c>
@@ -7985,6 +7980,20 @@
     <mergeCell ref="L22:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="I3:J33">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E46923D-70E9-4022-AD17-AC50844DD893}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -7999,25 +8008,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J33">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E46923D-70E9-4022-AD17-AC50844DD893}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E46923D-70E9-4022-AD17-AC50844DD893}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:J33</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6807CCA2-9425-40E3-B459-7F829A264C5D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -8030,19 +8038,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>K3:K33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E46923D-70E9-4022-AD17-AC50844DD893}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I3:J33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8061,19 +8056,19 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="56.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08203125" customWidth="1"/>
-    <col min="6" max="11" width="8.58203125" customWidth="1"/>
+    <col min="5" max="5" width="5.0703125" customWidth="1"/>
+    <col min="6" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="54" customWidth="1"/>
-    <col min="13" max="17" width="8.58203125" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="8.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -8081,7 +8076,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -8134,7 +8129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -8168,7 +8163,7 @@
         <f>I3+J3</f>
         <v>9</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="40" t="s">
         <v>116</v>
       </c>
       <c r="M3">
@@ -8192,7 +8187,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -8226,7 +8221,7 @@
         <f t="shared" ref="K4:K32" si="1">I4+J4</f>
         <v>10</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
       <c r="M4">
         <f t="shared" ref="M4:M32" si="2">IF(F4&lt;2,IF(F4&lt;1,0,5),10)</f>
         <v>10</v>
@@ -8248,7 +8243,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -8284,7 +8279,7 @@
         <f>I5+J5</f>
         <v>10</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
       <c r="M5">
         <f>IF(F5&lt;2,IF(F5&lt;1,0,5),10)</f>
         <v>10</v>
@@ -8306,7 +8301,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -8342,7 +8337,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
       <c r="M6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8364,7 +8359,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -8400,7 +8395,7 @@
         <f>I7+J7</f>
         <v>10</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="41"/>
       <c r="M7">
         <f>IF(F7&lt;2,IF(F7&lt;1,0,5),10)</f>
         <v>10</v>
@@ -8422,7 +8417,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8482,7 +8477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -8540,7 +8535,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -8576,7 +8571,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M10">
@@ -8600,7 +8595,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -8636,7 +8631,7 @@
         <f>I11+J11</f>
         <v>10</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="41"/>
       <c r="M11">
         <f>IF(F11&lt;2,IF(F11&lt;1,0,5),10)</f>
         <v>10</v>
@@ -8658,7 +8653,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -8718,7 +8713,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -8752,7 +8747,7 @@
         <f>I13+J13</f>
         <v>10</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="40" t="s">
         <v>122</v>
       </c>
       <c r="M13">
@@ -8776,7 +8771,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -8812,7 +8807,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="42"/>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8834,7 +8829,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -8870,7 +8865,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
       <c r="M15">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8892,7 +8887,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -8928,7 +8923,7 @@
         <f>I16+J16</f>
         <v>9</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="41"/>
       <c r="M16">
         <f>IF(F16&lt;2,IF(F16&lt;1,0,5),10)</f>
         <v>10</v>
@@ -8950,7 +8945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -8986,7 +8981,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="40" t="s">
         <v>126</v>
       </c>
       <c r="M17">
@@ -9010,7 +9005,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -9046,7 +9041,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="42"/>
       <c r="M18">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -9068,7 +9063,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -9104,7 +9099,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L19" s="40"/>
+      <c r="L19" s="41"/>
       <c r="M19">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -9126,7 +9121,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -9162,7 +9157,7 @@
         <f>I20+J20</f>
         <v>10</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="40" t="s">
         <v>128</v>
       </c>
       <c r="M20">
@@ -9186,7 +9181,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -9222,7 +9217,7 @@
         <f>I21+J21</f>
         <v>9</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="41"/>
       <c r="M21">
         <f>IF(F21&lt;2,IF(F21&lt;1,0,5),10)</f>
         <v>10</v>
@@ -9244,7 +9239,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
@@ -9280,7 +9275,7 @@
         <f t="shared" ref="K22:K31" si="8">I22+J22</f>
         <v>10</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="40" t="s">
         <v>131</v>
       </c>
       <c r="M22">
@@ -9304,7 +9299,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -9340,7 +9335,7 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="41"/>
       <c r="M23">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -9362,7 +9357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -9398,7 +9393,7 @@
         <f>I24+J24</f>
         <v>8</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M24">
@@ -9422,7 +9417,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -9458,7 +9453,7 @@
         <f>I25+J25</f>
         <v>9</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="41"/>
       <c r="M25">
         <f>IF(F25&lt;2,IF(F25&lt;1,0,5),10)</f>
         <v>10</v>
@@ -9480,7 +9475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -9516,7 +9511,7 @@
         <f t="shared" si="8"/>
         <v>2.6</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="40" t="s">
         <v>136</v>
       </c>
       <c r="M26">
@@ -9540,7 +9535,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -9576,7 +9571,7 @@
         <f t="shared" si="8"/>
         <v>3.6</v>
       </c>
-      <c r="L27" s="41"/>
+      <c r="L27" s="42"/>
       <c r="M27">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -9598,7 +9593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
@@ -9632,7 +9627,7 @@
         <f>I28+J28</f>
         <v>7</v>
       </c>
-      <c r="L28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="M28">
         <f>IF(F28&lt;2,IF(F28&lt;1,0,5),10)</f>
         <v>10</v>
@@ -9654,7 +9649,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
         <v>99</v>
@@ -9688,7 +9683,7 @@
         <f t="shared" ref="K29" si="14">I29+J29</f>
         <v>2.6</v>
       </c>
-      <c r="L29" s="41"/>
+      <c r="L29" s="42"/>
       <c r="M29">
         <f t="shared" ref="M29" si="15">IF(F29&lt;2,IF(F29&lt;1,0,5),10)</f>
         <v>10</v>
@@ -9710,7 +9705,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -9746,7 +9741,7 @@
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="L30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -9768,7 +9763,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -9804,7 +9799,7 @@
         <f t="shared" si="8"/>
         <v>2.6</v>
       </c>
-      <c r="L31" s="40"/>
+      <c r="L31" s="41"/>
       <c r="M31">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -9826,7 +9821,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A32" s="3" t="s">
         <v>108</v>
       </c>
@@ -9886,7 +9881,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A33" s="3" t="s">
         <v>112</v>
       </c>
@@ -9959,6 +9954,20 @@
     <mergeCell ref="L22:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="I3:J33">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{637CBEF6-48EC-4CCE-B134-EFEA1BEAE84B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -9973,25 +9982,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J33">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{637CBEF6-48EC-4CCE-B134-EFEA1BEAE84B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{637CBEF6-48EC-4CCE-B134-EFEA1BEAE84B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:J33</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{63AFDF29-70A6-4DCE-BB51-50CAA4228BDE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -10004,19 +10012,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>K3:K33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{637CBEF6-48EC-4CCE-B134-EFEA1BEAE84B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I3:J33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10035,19 +10030,19 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="56.58203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.58203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="5.08203125" customWidth="1"/>
-    <col min="11" max="16" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="5.0703125" customWidth="1"/>
+    <col min="11" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="54" customWidth="1"/>
-    <col min="18" max="22" width="8.58203125" hidden="1" customWidth="1"/>
+    <col min="18" max="22" width="8.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.65">
       <c r="O1" t="s">
         <v>0</v>
       </c>
@@ -10055,7 +10050,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -10120,7 +10115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -10187,7 +10182,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -10256,7 +10251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -10319,7 +10314,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10384,7 +10379,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -10457,7 +10452,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -10530,7 +10525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -10599,7 +10594,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A10" s="20" t="s">
         <v>49</v>
       </c>
@@ -10666,7 +10661,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -10735,7 +10730,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -10804,7 +10799,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -10867,7 +10862,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -10938,7 +10933,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A15" s="20" t="s">
         <v>39</v>
       </c>
@@ -11007,7 +11002,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
@@ -11074,7 +11069,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
@@ -11141,7 +11136,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A18" s="20" t="s">
         <v>46</v>
       </c>
@@ -11214,7 +11209,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
@@ -11285,7 +11280,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
@@ -11358,7 +11353,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A21" s="20" t="s">
         <v>49</v>
       </c>
@@ -11425,7 +11420,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A22" s="20" t="s">
         <v>49</v>
       </c>
@@ -11496,7 +11491,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A23" s="20" t="s">
         <v>49</v>
       </c>
@@ -11567,7 +11562,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A24" s="20" t="s">
         <v>60</v>
       </c>
@@ -11632,7 +11627,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A25" s="20" t="s">
         <v>60</v>
       </c>
@@ -11699,7 +11694,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A26" s="20" t="s">
         <v>60</v>
       </c>
@@ -11770,7 +11765,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -11839,7 +11834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A28" s="20" t="s">
         <v>70</v>
       </c>
@@ -11908,7 +11903,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" ht="110.6" x14ac:dyDescent="0.65">
       <c r="A29" s="20" t="s">
         <v>70</v>
       </c>
@@ -11973,7 +11968,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A30" s="20" t="s">
         <v>70</v>
       </c>
@@ -12042,7 +12037,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A31" s="20" t="s">
         <v>70</v>
       </c>
@@ -12107,7 +12102,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A32" s="20" t="s">
         <v>77</v>
       </c>
@@ -12180,7 +12175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A33" s="20" t="s">
         <v>77</v>
       </c>
@@ -12251,7 +12246,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A34" s="20" t="s">
         <v>194</v>
       </c>
@@ -12320,7 +12315,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A35" s="20" t="s">
         <v>194</v>
       </c>
@@ -12387,7 +12382,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A36" s="20" t="s">
         <v>194</v>
       </c>
@@ -12452,7 +12447,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A37" s="20" t="s">
         <v>83</v>
       </c>
@@ -12521,7 +12516,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A38" s="20" t="s">
         <v>83</v>
       </c>
@@ -12588,7 +12583,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A39" s="20" t="s">
         <v>83</v>
       </c>
@@ -12653,7 +12648,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" ht="147.44999999999999" x14ac:dyDescent="0.65">
       <c r="A40" s="20" t="s">
         <v>83</v>
       </c>
@@ -12720,7 +12715,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>210</v>
@@ -12785,7 +12780,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A42" s="20" t="s">
         <v>90</v>
       </c>
@@ -12850,7 +12845,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
@@ -12917,7 +12912,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A44" s="20" t="s">
         <v>90</v>
       </c>
@@ -12986,7 +12981,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.65">
       <c r="A45" s="20" t="s">
         <v>90</v>
       </c>
@@ -13049,7 +13044,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
         <v>99</v>
@@ -13114,7 +13109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A47" s="20" t="s">
         <v>90</v>
       </c>
@@ -13181,7 +13176,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="126" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" ht="129" x14ac:dyDescent="0.65">
       <c r="A48" s="20" t="s">
         <v>90</v>
       </c>
@@ -13250,7 +13245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A49" s="20" t="s">
         <v>90</v>
       </c>
@@ -13319,7 +13314,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A50" s="20" t="s">
         <v>108</v>
       </c>
@@ -13388,7 +13383,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A51" s="20" t="s">
         <v>112</v>
       </c>
@@ -13537,15 +13532,15 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="56.58203125" style="1" customWidth="1"/>
-    <col min="4" max="19" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.35546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="1" customWidth="1"/>
+    <col min="4" max="19" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="234" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" ht="239.6" x14ac:dyDescent="0.65">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="22" t="s">
@@ -13597,8 +13592,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A2" s="43" t="s">
         <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -13624,8 +13619,8 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
@@ -13649,8 +13644,8 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
@@ -13674,8 +13669,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A5" s="43"/>
       <c r="B5" s="2" t="s">
         <v>244</v>
       </c>
@@ -13699,8 +13694,8 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="42"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>245</v>
       </c>
@@ -13724,8 +13719,8 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A7" s="43"/>
       <c r="B7" s="2" t="s">
         <v>246</v>
       </c>
@@ -13749,8 +13744,8 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -13774,8 +13769,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A9" s="43"/>
       <c r="B9" s="2" t="s">
         <v>247</v>
       </c>
@@ -13799,8 +13794,8 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A10" s="43"/>
       <c r="B10" s="2" t="s">
         <v>248</v>
       </c>
@@ -13824,8 +13819,8 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A11" s="43"/>
       <c r="B11" s="2" t="s">
         <v>249</v>
       </c>
@@ -13849,8 +13844,8 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A12" s="43"/>
       <c r="B12" s="2" t="s">
         <v>250</v>
       </c>
@@ -13874,8 +13869,8 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A13" s="43"/>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
@@ -13899,8 +13894,8 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.65">
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -13924,7 +13919,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" ht="35.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="20" t="s">
         <v>251</v>
       </c>
@@ -13965,7 +13960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>254</v>
@@ -13998,7 +13993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>256</v>
@@ -14031,7 +14026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>258</v>
@@ -14060,7 +14055,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>260</v>
@@ -14091,7 +14086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -14118,7 +14113,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>263</v>
@@ -14145,7 +14140,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>265</v>
@@ -14172,7 +14167,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>26</v>
@@ -14215,7 +14210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>268</v>
@@ -14242,7 +14237,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>173</v>
@@ -14273,7 +14268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>270</v>
@@ -14312,7 +14307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>272</v>
@@ -14345,7 +14340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>274</v>
@@ -14372,7 +14367,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>276</v>
@@ -14399,7 +14394,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>278</v>
@@ -14426,7 +14421,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>280</v>
@@ -14455,7 +14450,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A32" s="20"/>
       <c r="B32" s="4" t="s">
         <v>282</v>
@@ -14486,7 +14481,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>284</v>
@@ -14513,7 +14508,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>286</v>
@@ -14544,7 +14539,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A35" s="20"/>
       <c r="B35" s="4" t="s">
         <v>288</v>
@@ -14571,7 +14566,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>60</v>
@@ -14598,7 +14593,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>291</v>
@@ -14625,7 +14620,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A38" s="20"/>
       <c r="B38" s="5" t="s">
         <v>293</v>
@@ -14656,7 +14651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A39" s="20"/>
       <c r="B39" s="5" t="s">
         <v>295</v>
@@ -14691,7 +14686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A40" s="20"/>
       <c r="B40" s="5" t="s">
         <v>214</v>
@@ -14728,7 +14723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A41" s="20"/>
       <c r="B41" s="7" t="s">
         <v>91</v>
@@ -14761,7 +14756,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
         <v>299</v>
@@ -14788,7 +14783,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A43" s="20"/>
       <c r="B43" s="7" t="s">
         <v>301</v>
@@ -14821,7 +14816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A44" s="20"/>
       <c r="B44" s="6" t="s">
         <v>303</v>
@@ -14848,7 +14843,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A45" s="20"/>
       <c r="B45" s="6" t="s">
         <v>305</v>
@@ -14879,7 +14874,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A46" s="20"/>
       <c r="B46" s="6" t="s">
         <v>307</v>
@@ -14906,7 +14901,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A47" s="20"/>
       <c r="B47" s="6" t="s">
         <v>309</v>
@@ -14937,7 +14932,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A48" s="20"/>
       <c r="B48" s="6" t="s">
         <v>311</v>
@@ -14964,7 +14959,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A49" s="20"/>
       <c r="B49" s="6" t="s">
         <v>313</v>
@@ -14991,7 +14986,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A50" s="20"/>
       <c r="B50" s="6" t="s">
         <v>315</v>
@@ -15018,7 +15013,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A51" s="20"/>
       <c r="B51" s="6" t="s">
         <v>317</v>
@@ -15051,7 +15046,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A52" s="20"/>
       <c r="B52" s="6" t="s">
         <v>319</v>
@@ -15080,7 +15075,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A53" s="20"/>
       <c r="B53" s="6" t="s">
         <v>321</v>
@@ -15107,7 +15102,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A54" s="20"/>
       <c r="B54" s="6" t="s">
         <v>323</v>
@@ -15136,7 +15131,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A55" s="20"/>
       <c r="B55" s="6" t="s">
         <v>325</v>
@@ -15163,7 +15158,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A56" s="20"/>
       <c r="B56" s="6" t="s">
         <v>87</v>
@@ -15190,7 +15185,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A57" s="20"/>
       <c r="B57" s="6" t="s">
         <v>328</v>
@@ -15217,7 +15212,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A58" s="20"/>
       <c r="B58" s="6" t="s">
         <v>330</v>
@@ -15244,7 +15239,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A59" s="20"/>
       <c r="B59" s="6" t="s">
         <v>332</v>
@@ -15273,7 +15268,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A60" s="20"/>
       <c r="B60" s="6" t="s">
         <v>334</v>
@@ -15300,7 +15295,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A61" s="20"/>
       <c r="B61" s="6" t="s">
         <v>336</v>
@@ -15327,7 +15322,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A62" s="20"/>
       <c r="B62" s="9" t="s">
         <v>338</v>
@@ -15356,7 +15351,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A63" s="20"/>
       <c r="B63" s="9" t="s">
         <v>340</v>
@@ -15385,7 +15380,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A64" s="20"/>
       <c r="B64" s="23" t="s">
         <v>39</v>
@@ -15412,7 +15407,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A65" s="20"/>
       <c r="B65" s="23" t="s">
         <v>70</v>
@@ -15439,7 +15434,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="66" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A66" s="20"/>
       <c r="B66" s="23" t="s">
         <v>344</v>
@@ -15466,7 +15461,7 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A67" s="20"/>
       <c r="B67" s="23" t="s">
         <v>346</v>
@@ -15493,7 +15488,7 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A68" s="20"/>
       <c r="B68" s="23" t="s">
         <v>348</v>
@@ -15520,7 +15515,7 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A69" s="20"/>
       <c r="B69" s="23" t="s">
         <v>350</v>
@@ -15547,7 +15542,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
     </row>
-    <row r="70" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A70" s="20"/>
       <c r="B70" s="8" t="s">
         <v>102</v>
@@ -15576,7 +15571,7 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A71" s="20"/>
       <c r="B71" s="8" t="s">
         <v>353</v>
@@ -15605,7 +15600,7 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A72" s="20"/>
       <c r="B72" s="8" t="s">
         <v>355</v>
@@ -15632,7 +15627,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A73" s="20"/>
       <c r="B73" s="8" t="s">
         <v>357</v>
@@ -15661,7 +15656,7 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A74" s="20"/>
       <c r="B74" s="10" t="s">
         <v>359</v>
@@ -15688,7 +15683,7 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A75" s="20"/>
       <c r="B75" s="10" t="s">
         <v>361</v>
@@ -15715,7 +15710,7 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.65">
       <c r="A76" s="20"/>
       <c r="B76" s="10" t="s">
         <v>363</v>
@@ -15742,7 +15737,7 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.65">
       <c r="B77" s="18" t="s">
         <v>365</v>
       </c>
@@ -15764,7 +15759,7 @@
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.65">
       <c r="B78" s="2" t="s">
         <v>19</v>
       </c>
@@ -15818,7 +15813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.65">
       <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
@@ -15852,7 +15847,7 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.65">
       <c r="B80" s="2" t="s">
         <v>366</v>
       </c>
@@ -15898,7 +15893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B81" s="2" t="s">
         <v>367</v>
       </c>
@@ -15932,7 +15927,7 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B82" s="2" t="s">
         <v>368</v>
       </c>
@@ -15966,7 +15961,7 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
@@ -16020,7 +16015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B84" s="2" t="s">
         <v>369</v>
       </c>
@@ -16074,7 +16069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B85" s="2" t="s">
         <v>29</v>
       </c>
@@ -16116,7 +16111,7 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B86" s="2" t="s">
         <v>370</v>
       </c>
@@ -16170,7 +16165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B87" s="2" t="s">
         <v>371</v>
       </c>
@@ -16210,7 +16205,7 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B88" s="2" t="s">
         <v>372</v>
       </c>
@@ -16260,7 +16255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B89" s="2" t="s">
         <v>373</v>
       </c>
@@ -16286,7 +16281,7 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B90" s="2" t="s">
         <v>374</v>
       </c>
@@ -16322,7 +16317,7 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B91" s="2" t="s">
         <v>375</v>
       </c>
@@ -16376,7 +16371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B92" s="2" t="s">
         <v>376</v>
       </c>
@@ -16404,7 +16399,7 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.65">
       <c r="B93" s="2" t="s">
         <v>377</v>
       </c>
@@ -16451,20 +16446,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D4BA49431D4D9249A6509499E059C03E" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ab603acd520aec003329a8cc5e5a3c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2731dd5c1c8e876b3faee75002f54a14" ns2:_="">
+    <xsd:import namespace="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -16473,20 +16457,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16494,21 +16466,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8676f7c-cd37-452c-a4f6-258f9e9fd2a4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -16521,97 +16479,15 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -16713,31 +16589,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2829088D-DA30-47EF-889C-1F61AD645BB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C255A470-F56B-4E93-9EC1-EA44E9A38469}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F47DAE-FEC5-48DD-8AE2-43C1C805395A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A8F448-39CF-4A63-B349-2C68342C4A8C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35B83BB-03A1-4EC8-876A-FDE342455559}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{087F2CFD-7F0E-4BEE-89AF-564FB77A0BA3}"/>
 </file>